--- a/Checklist_structure.xlsx
+++ b/Checklist_structure.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baraboi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Course_QA\it\group_22\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4181A6E-A3D1-404A-8F17-24A4D1502BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14715" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="288" windowWidth="6936" windowHeight="11748" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Veronika Baraboi</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0" shapeId="0">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -93,8 +94,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +126,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -190,17 +201,17 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -481,69 +492,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
